--- a/eA_template.xlsx
+++ b/eA_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eardito\Python Files\github\evest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eardito\Python Files\github\evest\fds_to_evest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="mc" sheetId="38" r:id="rId1"/>
@@ -292,15 +292,6 @@
     <t>3/31/2021</t>
   </si>
   <si>
-    <t>IEV-US</t>
-  </si>
-  <si>
-    <t>IOO-US</t>
-  </si>
-  <si>
-    <t>EWJ-US</t>
-  </si>
-  <si>
     <t>Economic Sector - GICS Direct        Excluded: Multiple Securities</t>
   </si>
   <si>
@@ -308,6 +299,15 @@
   </si>
   <si>
     <t>Country - MSCI        Excluded: Multiple Securities</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>XYX</t>
+  </si>
+  <si>
+    <t>ZZZ</t>
   </si>
 </sst>
 </file>
@@ -876,11 +876,11 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:C17"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -917,13 +917,13 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -943,13 +943,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="32">
-        <v>53.897341666326803</v>
+        <v>43.9</v>
       </c>
       <c r="C9" s="32">
-        <v>94.521026173372505</v>
+        <v>84.52</v>
       </c>
       <c r="D9" s="32">
-        <v>33.6217546640151</v>
+        <v>37.630000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -957,13 +957,13 @@
         <v>64</v>
       </c>
       <c r="B10" s="32">
-        <v>22.461367952457401</v>
+        <v>32.46</v>
       </c>
       <c r="C10" s="32">
-        <v>4.4899508740960297</v>
+        <v>14.49</v>
       </c>
       <c r="D10" s="32">
-        <v>22.9268986075835</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1005,7 +1005,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="32">
-        <v>7.4356975747324103</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="32">
-        <v>1.6110075895251099</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1078,7 +1078,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="B9:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1116,13 +1116,13 @@
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1142,13 +1142,13 @@
         <v>58</v>
       </c>
       <c r="B9" s="32">
-        <v>3.7314236216796202</v>
+        <v>5.73</v>
       </c>
       <c r="C9" s="32">
-        <v>8.4521788807554508</v>
+        <v>6.45</v>
       </c>
       <c r="D9" s="32">
-        <v>9.6313511096244699</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1156,13 +1156,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="32">
-        <v>11.858486717304</v>
+        <v>9.86</v>
       </c>
       <c r="C10" s="32">
-        <v>14.4792654626629</v>
+        <v>16.48</v>
       </c>
       <c r="D10" s="32">
-        <v>18.7099223702069</v>
+        <v>20.71</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1316,11 +1316,11 @@
   </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1358,13 +1358,13 @@
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1398,7 +1398,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="32">
-        <v>0.17902890708326</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>50</v>
@@ -1412,7 +1412,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="32">
-        <v>1.53424415940423</v>
+        <v>1.43</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>50</v>
@@ -1516,7 +1516,7 @@
         <v>3.4520012055445202</v>
       </c>
       <c r="D18" s="32">
-        <v>99.870186508640899</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1608,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="B25" s="32">
-        <v>15.138684684352199</v>
+        <v>16.14</v>
       </c>
       <c r="C25" s="32">
         <v>5.6446905187483098</v>
@@ -1622,10 +1622,10 @@
         <v>45</v>
       </c>
       <c r="B26" s="32">
-        <v>23.721985434554401</v>
+        <v>22.72</v>
       </c>
       <c r="C26" s="32">
-        <v>7.0907552478538696</v>
+        <v>9.09</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>50</v>
@@ -1639,7 +1639,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="32">
-        <v>71.023647889814498</v>
+        <v>69.02</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>50</v>
@@ -1656,7 +1656,7 @@
         <v>0.10989928628072999</v>
       </c>
       <c r="D28" s="32">
-        <v>0.129813491359108</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1688,7 +1688,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1725,13 +1725,13 @@
     <row r="7" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2040,7 +2040,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2078,13 +2078,13 @@
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2104,13 +2104,13 @@
         <v>72</v>
       </c>
       <c r="B9" s="37">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="C9" s="37">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="D9" s="37">
-        <v>302</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2118,13 +2118,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="39">
-        <v>31.403606414794901</v>
+        <v>34.44</v>
       </c>
       <c r="C10" s="39">
-        <v>33.205356597900398</v>
+        <v>25.22</v>
       </c>
       <c r="D10" s="39">
-        <v>30.0802211761475</v>
+        <v>28.85</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2132,13 +2132,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="40">
-        <v>22.304176226320902</v>
+        <v>24.35</v>
       </c>
       <c r="C11" s="40">
-        <v>22.275132108264799</v>
+        <v>24.48</v>
       </c>
       <c r="D11" s="40">
-        <v>26.123582666097299</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3152,6 +3152,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="----- General Document -----" ma:contentTypeID="0x0101000945343AC7418640832878951C0DA04C0010F4303BE228A84F8F3E9BA01A6019AD" ma:contentTypeVersion="2" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="3a55d3cb885f8b8d3a603081f3ea71b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04ea406deab3b3fd3b4cd009fdbc55ac">
     <xsd:element name="properties">
@@ -3265,15 +3274,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3281,6 +3281,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E38FFF8D-2BEA-4A16-B864-D8E0AC74490A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180A7F46-5AD0-47B9-A99E-B57403F75C9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3292,14 +3300,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E38FFF8D-2BEA-4A16-B864-D8E0AC74490A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/eA_template.xlsx
+++ b/eA_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mc" sheetId="38" r:id="rId1"/>
@@ -304,10 +304,10 @@
     <t>ABC</t>
   </si>
   <si>
-    <t>XYX</t>
-  </si>
-  <si>
     <t>ZZZ</t>
+  </si>
+  <si>
+    <t>XYZ</t>
   </si>
 </sst>
 </file>
@@ -876,11 +876,11 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -920,10 +920,10 @@
         <v>88</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1078,7 +1078,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="B9:D19"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1119,10 +1119,10 @@
         <v>88</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1320,7 +1320,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1361,10 +1361,10 @@
         <v>88</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1688,7 +1688,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1728,10 +1728,10 @@
         <v>88</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2036,11 +2036,11 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2081,10 +2081,10 @@
         <v>88</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3152,6 +3152,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3160,7 +3166,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="----- General Document -----" ma:contentTypeID="0x0101000945343AC7418640832878951C0DA04C0010F4303BE228A84F8F3E9BA01A6019AD" ma:contentTypeVersion="2" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="3a55d3cb885f8b8d3a603081f3ea71b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04ea406deab3b3fd3b4cd009fdbc55ac">
     <xsd:element name="properties">
@@ -3274,13 +3280,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21B9D63C-2314-4030-99CE-A9B829F845F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E38FFF8D-2BEA-4A16-B864-D8E0AC74490A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3288,7 +3303,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180A7F46-5AD0-47B9-A99E-B57403F75C9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3302,19 +3317,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21B9D63C-2314-4030-99CE-A9B829F845F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>